--- a/static/excel/applyParkTemp.xlsx
+++ b/static/excel/applyParkTemp.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>企业名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -25,12 +25,20 @@
     <t>社会信用编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>客户类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示：客户类型请填写对应数值：普通境内企业(01)，政府（02），境外（03），事业单位（04），民办非企业（05），银行同业（06），个体工商户（07）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,16 +53,29 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -62,12 +83,59 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -83,7 +151,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -157,7 +225,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -192,7 +259,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -368,24 +434,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="52.5" customWidth="1"/>
+    <col min="2" max="2" width="28.875" customWidth="1"/>
+    <col min="3" max="3" width="53.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="24.75" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
@@ -393,12 +478,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -406,12 +491,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/static/excel/applyParkTemp.xlsx
+++ b/static/excel/applyParkTemp.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>企业名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -31,6 +31,18 @@
   </si>
   <si>
     <t>提示：客户类型请填写对应数值：普通境内企业(01)，政府（02），境外（03），事业单位（04），民办非企业（05），银行同业（06），个体工商户（07）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>91630100MA7541JD65</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -124,18 +136,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -435,29 +448,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="52.5" customWidth="1"/>
+    <col min="1" max="1" width="52.5" style="5" customWidth="1"/>
     <col min="2" max="2" width="28.875" customWidth="1"/>
     <col min="3" max="3" width="53.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24.75" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -467,13 +480,21 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/static/excel/applyParkTemp.xlsx
+++ b/static/excel/applyParkTemp.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>企业名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -31,18 +31,6 @@
   </si>
   <si>
     <t>提示：客户类型请填写对应数值：普通境内企业(01)，政府（02），境外（03），事业单位（04），民办非企业（05），银行同业（06），个体工商户（07）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>91630100MA7541JD65</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -448,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -480,17 +468,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/static/excel/applyParkTemp.xlsx
+++ b/static/excel/applyParkTemp.xlsx
@@ -124,19 +124,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -436,15 +439,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="52.5" style="5" customWidth="1"/>
+    <col min="1" max="1" width="52.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="28.875" customWidth="1"/>
     <col min="3" max="3" width="53.875" customWidth="1"/>
   </cols>
@@ -453,12 +456,12 @@
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="6"/>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -468,7 +471,13 @@
         <v>1</v>
       </c>
     </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
